--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_181__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_181__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,16 +5987,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>92.63405609130859</c:v>
+                  <c:v>92.63404083251953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.38327956199646</c:v>
+                  <c:v>2.383278131484985</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>79.36994171142578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.422844171524048</c:v>
+                  <c:v>-2.422842741012573</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.36229705810547</c:v>
@@ -6005,7 +6005,7 @@
                   <c:v>91.90087127685547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.32404327392578</c:v>
+                  <c:v>96.32402801513672</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.669025719165802</c:v>
@@ -6014,10 +6014,10 @@
                   <c:v>25.51366424560547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.97661590576172</c:v>
+                  <c:v>94.97663116455078</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.14363861083984</c:v>
+                  <c:v>93.14364624023438</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>39.73703384399414</c:v>
@@ -6029,25 +6029,25 @@
                   <c:v>94.67782592773438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.84627628326416</c:v>
+                  <c:v>9.846282958984375</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-3.33928370475769</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.59339141845703</c:v>
+                  <c:v>87.59339904785156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.619996309280396</c:v>
+                  <c:v>2.619997024536133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.22397613525391</c:v>
+                  <c:v>67.22398376464844</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>18.39394378662109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>77.20162963867188</c:v>
+                  <c:v>77.20162200927734</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7.734777927398682</c:v>
@@ -6056,7 +6056,7 @@
                   <c:v>96.51557922363281</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.52617645263672</c:v>
+                  <c:v>30.52617835998535</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.009729853831231594</c:v>
@@ -6065,28 +6065,28 @@
                   <c:v>38.96722030639648</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.13867950439453</c:v>
+                  <c:v>55.1386833190918</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.4118416309356689</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91.83048248291016</c:v>
+                  <c:v>91.83047485351562</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>92.64924621582031</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70.26416015625</c:v>
+                  <c:v>70.26416778564453</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.64284324645996</c:v>
+                  <c:v>28.64284896850586</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1.232484579086304</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.6910549998283386</c:v>
+                  <c:v>-0.6910535097122192</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>92.10556793212891</c:v>
@@ -6095,7 +6095,7 @@
                   <c:v>-1.283939480781555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>87.574951171875</c:v>
+                  <c:v>87.57494354248047</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>36.02756500244141</c:v>
@@ -6107,10 +6107,10 @@
                   <c:v>25.11482620239258</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>60.97081756591797</c:v>
+                  <c:v>60.97082138061523</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93.46517181396484</c:v>
+                  <c:v>93.46516418457031</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>89.35712432861328</c:v>
@@ -6119,37 +6119,37 @@
                   <c:v>68.12397003173828</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>66.558349609375</c:v>
+                  <c:v>66.55836486816406</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>91.56385040283203</c:v>
+                  <c:v>91.56385803222656</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>89.01320648193359</c:v>
+                  <c:v>89.01321411132812</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2190757095813751</c:v>
+                  <c:v>0.2190764397382736</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>86.02529907226562</c:v>
+                  <c:v>86.02529144287109</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>93.19135284423828</c:v>
+                  <c:v>93.19136047363281</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>40.85490798950195</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.271825671195984</c:v>
+                  <c:v>1.271826386451721</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>28.13324546813965</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.561678886413574</c:v>
+                  <c:v>-1.5616774559021</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>89.75153350830078</c:v>
+                  <c:v>89.75151824951172</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>77.709228515625</c:v>
@@ -6179,7 +6179,7 @@
                   <c:v>90.16870880126953</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>56.74322128295898</c:v>
+                  <c:v>56.74322509765625</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0.9556867480278015</c:v>
@@ -6191,7 +6191,7 @@
                   <c:v>76.08287048339844</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.411359786987305</c:v>
+                  <c:v>5.411361217498779</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1.697707653045654</c:v>
@@ -6200,16 +6200,16 @@
                   <c:v>94.44219970703125</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>94.09015655517578</c:v>
+                  <c:v>94.09014892578125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>93.41819000244141</c:v>
+                  <c:v>93.41815948486328</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>96.57286834716797</c:v>
+                  <c:v>96.57286071777344</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.051791191101074</c:v>
+                  <c:v>-2.0517897605896</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>82.22714996337891</c:v>
@@ -6218,22 +6218,22 @@
                   <c:v>87.70723724365234</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>93.73419189453125</c:v>
+                  <c:v>93.73418426513672</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>65.35841369628906</c:v>
+                  <c:v>65.35842132568359</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.7920495271682739</c:v>
+                  <c:v>0.7920466065406799</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>92.79307556152344</c:v>
+                  <c:v>92.79306793212891</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>96.68227386474609</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1560127884149551</c:v>
+                  <c:v>0.1560113281011581</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>85.51882171630859</c:v>
@@ -6242,10 +6242,10 @@
                   <c:v>74.70401763916016</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>101.2121276855469</c:v>
+                  <c:v>101.2121047973633</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.115306980907917</c:v>
+                  <c:v>-0.115308441221714</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>16.91126823425293</c:v>
@@ -6257,13 +6257,13 @@
                   <c:v>62.64773178100586</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-1.553062200546265</c:v>
+                  <c:v>-1.55306077003479</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>77.12114715576172</c:v>
+                  <c:v>77.12115478515625</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95.95780944824219</c:v>
+                  <c:v>95.95780181884766</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-2.157672643661499</c:v>
@@ -6278,13 +6278,13 @@
                   <c:v>85.20721435546875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.338731050491333</c:v>
+                  <c:v>2.338729619979858</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>53.99158096313477</c:v>
+                  <c:v>53.9915885925293</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>98.803955078125</c:v>
+                  <c:v>98.80393981933594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>92.63405609130859</v>
+        <v>92.63404083251953</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.38327956199646</v>
+        <v>2.383278131484985</v>
       </c>
       <c r="G3">
         <v>131</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.422844171524048</v>
+        <v>-2.422842741012573</v>
       </c>
       <c r="G5">
         <v>131</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>96.32404327392578</v>
+        <v>96.32402801513672</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>94.97661590576172</v>
+        <v>94.97663116455078</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>93.14363861083984</v>
+        <v>93.14364624023438</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.84627628326416</v>
+        <v>9.846282958984375</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>87.59339141845703</v>
+        <v>87.59339904785156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.619996309280396</v>
+        <v>2.619997024536133</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>67.22397613525391</v>
+        <v>67.22398376464844</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>77.20162963867188</v>
+        <v>77.20162200927734</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.52617645263672</v>
+        <v>30.52617835998535</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>55.13867950439453</v>
+        <v>55.1386833190918</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>91.83048248291016</v>
+        <v>91.83047485351562</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>70.26416015625</v>
+        <v>70.26416778564453</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>28.64284324645996</v>
+        <v>28.64284896850586</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-0.6910549998283386</v>
+        <v>-0.6910535097122192</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>87.574951171875</v>
+        <v>87.57494354248047</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>60.97081756591797</v>
+        <v>60.97082138061523</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>93.46517181396484</v>
+        <v>93.46516418457031</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>66.558349609375</v>
+        <v>66.55836486816406</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>91.56385040283203</v>
+        <v>91.56385803222656</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>89.01320648193359</v>
+        <v>89.01321411132812</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.2190757095813751</v>
+        <v>0.2190764397382736</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>86.02529907226562</v>
+        <v>86.02529144287109</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>93.19135284423828</v>
+        <v>93.19136047363281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.271825671195984</v>
+        <v>1.271826386451721</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-1.561678886413574</v>
+        <v>-1.5616774559021</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>89.75153350830078</v>
+        <v>89.75151824951172</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>56.74322128295898</v>
+        <v>56.74322509765625</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5.411359786987305</v>
+        <v>5.411361217498779</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>94.09015655517578</v>
+        <v>94.09014892578125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>93.41819000244141</v>
+        <v>93.41815948486328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>96.57286834716797</v>
+        <v>96.57286071777344</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-2.051791191101074</v>
+        <v>-2.0517897605896</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>93.73419189453125</v>
+        <v>93.73418426513672</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>65.35841369628906</v>
+        <v>65.35842132568359</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.7920495271682739</v>
+        <v>0.7920466065406799</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>92.79307556152344</v>
+        <v>92.79306793212891</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.1560127884149551</v>
+        <v>0.1560113281011581</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>101.2121276855469</v>
+        <v>101.2121047973633</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-0.115306980907917</v>
+        <v>-0.115308441221714</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-1.553062200546265</v>
+        <v>-1.55306077003479</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>77.12114715576172</v>
+        <v>77.12115478515625</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>95.95780944824219</v>
+        <v>95.95780181884766</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>2.338731050491333</v>
+        <v>2.338729619979858</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>53.99158096313477</v>
+        <v>53.9915885925293</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>98.803955078125</v>
+        <v>98.80393981933594</v>
       </c>
     </row>
     <row r="102" spans="1:6">
